--- a/utils/cleaners/bot/eliminados/Eliminados_lideres.xlsx
+++ b/utils/cleaners/bot/eliminados/Eliminados_lideres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY5"/>
+  <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,37 +692,33 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21/04</t>
+          <t>12/04</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>252</v>
+        <v>123456</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>No</t>
@@ -730,17 +726,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -759,66 +755,18 @@
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">El líder de tecnología ha visto la necesidad de incluir en el plan de estudios estrategias para estudiantes con dificultades de aprendizaje, pero no se ha incluido. </t>
-        </is>
-      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr">
         <is>
           <t>No</t>
@@ -849,34 +797,14 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>El plan de estudio se actualiza cada año, el énfasis es trabajar sobre las competencias laborales.</t>
-        </is>
-      </c>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -899,166 +827,54 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>03/05</t>
+          <t>12/04</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>176001001770</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+        <v>1111</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1068,7 +884,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1086,26 +902,10 @@
           <t>Sí</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr">
         <is>
@@ -1132,107 +932,895 @@
           <t>Sí</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AU3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AV3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AW3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AX3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20/05</t>
+          <t>12/04</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
+        <v>11111</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>13/04</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>11111111</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>21/04</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>252</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El líder de tecnología ha visto la necesidad de incluir en el plan de estudios estrategias para estudiantes con dificultades de aprendizaje, pero no se ha incluido. </t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>El plan de estudio se actualiza cada año, el énfasis es trabajar sobre las competencias laborales.</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>105</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>03/05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>176001001770</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>251</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20/05</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
         <v>2022</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>La meta al año 2027 pretende posicionar a la Institución educativa dentro del contexto
 local de instituciones oficiales de Medellín como un establecimiento de liderazgo
@@ -1242,412 +1830,412 @@
 personal y responsabilidad social.</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>La institución eduactiva la independencia, resalta por su inclusión educativa, cuenta con maestras de apoyo, que acompañan tanto los docentes, los directivos docentes y los estudiantes que presentan dificultades en su aprendizaje, los planes de aula deben contar con piar para esta población con necesidades educativas especiales</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
         <is>
           <t>la institución educativa, busca fortalecer la equidad de género y la reivindicación de la mujer, a través de diferentes capacitaciones, campañas, charlas, conversatorios acerca de estas temáticas.</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AU4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AV4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AW4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AX4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
         <is>
           <t>la institución brinda espacios  para que los docentes se formen y se capaciten, no solo en el área de tecnología si no desde las diferentes áreas</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="9">
+      <c r="A9" t="n">
         <v>258</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>24/05</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AV5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AW5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AX5" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/utils/cleaners/bot/eliminados/Eliminados_lideres.xlsx
+++ b/utils/cleaners/bot/eliminados/Eliminados_lideres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY9"/>
+  <dimension ref="A1:AY11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1280,16 +1280,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>21/04</t>
+          <t>20/04</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>252</v>
+        <v>123</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1298,58 +1298,58 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1402,49 +1402,45 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">El líder de tecnología ha visto la necesidad de incluir en el plan de estudios estrategias para estudiantes con dificultades de aprendizaje, pero no se ha incluido. </t>
-        </is>
-      </c>
+      <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
@@ -1454,12 +1450,12 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>El plan de estudio se actualiza cada año, el énfasis es trabajar sobre las competencias laborales.</t>
+          <t>dddd</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1469,22 +1465,22 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -1494,7 +1490,7 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
@@ -1504,12 +1500,12 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
@@ -1517,24 +1513,28 @@
           <t>Sí</t>
         </is>
       </c>
-      <c r="AY6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>jjjjj</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>03/05</t>
+          <t>21/04</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>176001001770</v>
+        <v>252</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1549,27 +1549,27 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1595,93 +1595,97 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr"/>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El líder de tecnología ha visto la necesidad de incluir en el plan de estudios estrategias para estudiantes con dificultades de aprendizaje, pero no se ha incluido. </t>
+        </is>
+      </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
@@ -1691,10 +1695,14 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr"/>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>El plan de estudio se actualiza cada año, el énfasis es trabajar sobre las competencias laborales.</t>
+        </is>
+      </c>
       <c r="AN7" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -1702,22 +1710,22 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -1727,7 +1735,7 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
@@ -1737,12 +1745,12 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
@@ -1754,73 +1762,543 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251</v>
+        <v>70</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20/05</t>
+          <t>27/04</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
+        <v>248</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La institución es femenina, por tanto no aplica el trabajo con niños. </t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>105</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>03/05</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>176001001770</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>251</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>20/05</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
         <v>2022</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>La meta al año 2027 pretende posicionar a la Institución educativa dentro del contexto
 local de instituciones oficiales de Medellín como un establecimiento de liderazgo
@@ -1830,412 +2308,412 @@
 personal y responsabilidad social.</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>La institución eduactiva la independencia, resalta por su inclusión educativa, cuenta con maestras de apoyo, que acompañan tanto los docentes, los directivos docentes y los estudiantes que presentan dificultades en su aprendizaje, los planes de aula deben contar con piar para esta población con necesidades educativas especiales</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
         <is>
           <t>la institución educativa, busca fortalecer la equidad de género y la reivindicación de la mujer, a través de diferentes capacitaciones, campañas, charlas, conversatorios acerca de estas temáticas.</t>
         </is>
       </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AS8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AU8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AV8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AW8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AX8" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr">
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
         <is>
           <t>la institución brinda espacios  para que los docentes se formen y se capaciten, no solo en el área de tecnología si no desde las diferentes áreas</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="11">
+      <c r="A11" t="n">
         <v>258</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>24/05</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AS9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AT9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AU9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AV9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AW9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AX9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/utils/cleaners/bot/eliminados/Eliminados_lideres.xlsx
+++ b/utils/cleaners/bot/eliminados/Eliminados_lideres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ17"/>
+  <dimension ref="A1:AZ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,129 +1297,129 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20/04</t>
+          <t>18/04</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="E6" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr"/>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>dddd</t>
+          <t>fddf</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
@@ -1533,27 +1533,23 @@
           <t>Sí</t>
         </is>
       </c>
-      <c r="AZ6" t="inlineStr">
-        <is>
-          <t>jjjjj</t>
-        </is>
-      </c>
+      <c r="AZ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>21/04</t>
+          <t>20/04</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>252</v>
+        <v>123</v>
       </c>
       <c r="E7" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1562,58 +1558,58 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1666,49 +1662,45 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">El líder de tecnología ha visto la necesidad de incluir en el plan de estudios estrategias para estudiantes con dificultades de aprendizaje, pero no se ha incluido. </t>
-        </is>
-      </c>
+      <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -1718,12 +1710,12 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>El plan de estudio se actualiza cada año, el énfasis es trabajar sobre las competencias laborales.</t>
+          <t>dddd</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -1733,22 +1725,22 @@
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -1758,7 +1750,7 @@
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
@@ -1768,12 +1760,12 @@
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
@@ -1781,27 +1773,31 @@
           <t>Sí</t>
         </is>
       </c>
-      <c r="AZ7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>jjjjj</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>27/04</t>
+          <t>21/04</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E8" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1826,17 +1822,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1862,7 +1858,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1882,7 +1878,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -1892,7 +1888,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1910,15 +1906,19 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El líder de tecnología ha visto la necesidad de incluir en el plan de estudios estrategias para estudiantes con dificultades de aprendizaje, pero no se ha incluido. </t>
+        </is>
+      </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -1928,57 +1928,57 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t xml:space="preserve">La institución es femenina, por tanto no aplica el trabajo con niños. </t>
+          <t>El plan de estudio se actualiza cada año, el énfasis es trabajar sobre las competencias laborales.</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
@@ -1988,17 +1988,17 @@
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
@@ -2025,19 +2025,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>03/05</t>
+          <t>27/04</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="E9" t="n">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -2086,12 +2086,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -2137,12 +2137,12 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2153,17 +2153,17 @@
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -2173,38 +2173,42 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr"/>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La institución es femenina, por tanto no aplica el trabajo con niños. </t>
+        </is>
+      </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2214,7 +2218,7 @@
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
@@ -2224,12 +2228,12 @@
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
@@ -2244,7 +2248,7 @@
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
@@ -2261,7 +2265,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2270,10 +2274,10 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>176001001770</v>
+        <v>36</v>
       </c>
       <c r="E10" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2282,7 +2286,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2292,12 +2296,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2307,12 +2311,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -2322,12 +2326,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
@@ -2348,7 +2352,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -2358,12 +2362,12 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2383,18 +2387,18 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2404,22 +2408,22 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
@@ -2429,12 +2433,12 @@
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr"/>
@@ -2450,17 +2454,17 @@
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2497,19 +2501,19 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>09/05</t>
+          <t>03/05</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>42</v>
+        <v>176001001770</v>
       </c>
       <c r="E11" t="n">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -2533,22 +2537,22 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -2574,22 +2578,22 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2599,7 +2603,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2609,48 +2613,48 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -2670,33 +2674,33 @@
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -2711,41 +2715,41 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10/05</t>
+          <t>09/05</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E12" t="n">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -2789,43 +2793,43 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -2835,33 +2839,33 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
@@ -2871,22 +2875,22 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -2896,7 +2900,7 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -2906,33 +2910,33 @@
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -2947,98 +2951,334 @@
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251</v>
+        <v>162</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20/05</t>
+          <t>10/05</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
+        <v>39</v>
+      </c>
+      <c r="E13" t="n">
+        <v>162</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>251</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>20/05</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
         <v>2022</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E14" t="n">
         <v>251</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>La meta al año 2027 pretende posicionar a la Institución educativa dentro del contexto
 local de instituciones oficiales de Medellín como un establecimiento de liderazgo
@@ -3048,442 +3288,206 @@
 personal y responsabilidad social.</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
         <is>
           <t>La institución eduactiva la independencia, resalta por su inclusión educativa, cuenta con maestras de apoyo, que acompañan tanto los docentes, los directivos docentes y los estudiantes que presentan dificultades en su aprendizaje, los planes de aula deben contar con piar para esta población con necesidades educativas especiales</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
         <is>
           <t>la institución educativa, busca fortalecer la equidad de género y la reivindicación de la mujer, a través de diferentes capacitaciones, campañas, charlas, conversatorios acerca de estas temáticas.</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AS13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AT13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AU13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AV13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AW13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AX13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AZ13" t="inlineStr">
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AZ14" t="inlineStr">
         <is>
           <t>la institución brinda espacios  para que los docentes se formen y se capaciten, no solo en el área de tecnología si no desde las diferentes áreas</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>253</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>23/05</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>104</v>
-      </c>
-      <c r="E14" t="n">
-        <v>253</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AP14" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="AR14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AS14" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="AT14" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AU14" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="AV14" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AW14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AX14" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AZ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>24/05</t>
+          <t>23/05</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="E15" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3513,7 +3517,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -3531,11 +3535,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durante la entrevista a la líder del área se amplía la información sobre el plan de estudio, se aclara que si bien se realizan ajustes cada año, en ocasiones y cuando el tiempo lo permite se realizan de forma colectiva, pero cada docente de la asignatura planea de forma autónoma cómo desarrolla el plan de estudio. Este plan se enfoca en que las niñas de primaria  tengan un  acercamiento con la tecnología, informática y ofimática, para que ya en bachillerato, con la docente Claudia Ramirez, quien orienta la asignatura de 6° a 11, se aplique lo aprendido de preescolar a 5° y se aborde la programación apoyada en la introducción y exploración de actividades en plataformas como code.org y makecode, no obstante, es hasta 10° y 11° que se aborda en la lógica de programación conceptos como algoritmos. </t>
-        </is>
-      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -3591,11 +3591,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En la entrevista la docente menciona que a nivel general en la I.E. se aplica un plan de apoyo integral para estudiantes que necesitan algún refuerzo o la estrategia para ajustes razonables, en casos donde las niñas evidencian problemas emocionales o de otro tipo que influyan en su proceso didáctico, pero esto no se recalca o profundiza en el plan de estudio, La docente menciona también, que antes de la pandemia, manejaba un semillero de programación en donde invitaba a todas las niñas interesadas, motivando a todas las estudiantes a participar. </t>
-        </is>
-      </c>
+      <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr">
         <is>
           <t>No aplica</t>
@@ -3603,62 +3599,58 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Al ser una I.E. en donde sólo estudian niñas, no se hace mucho énfasis en este tema. </t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
@@ -3688,7 +3680,7 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AW15" t="inlineStr">
@@ -3698,23 +3690,19 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="AZ15" t="inlineStr">
-        <is>
-          <t>En la I.E. se promueven jornadas y capacitaciones enfocadas en la didáctica y la pedagogía en determinados momentos del año, pero el proceso formativo especifico en el área de cada docentes, se asume de forma autónoma.</t>
-        </is>
-      </c>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AZ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3722,13 +3710,15 @@
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>33</v>
+      </c>
       <c r="E16" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -3748,7 +3738,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3763,7 +3753,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -3781,7 +3771,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durante la entrevista a la líder del área se amplía la información sobre el plan de estudio, se aclara que si bien se realizan ajustes cada año, en ocasiones y cuando el tiempo lo permite se realizan de forma colectiva, pero cada docente de la asignatura planea de forma autónoma cómo desarrolla el plan de estudio. Este plan se enfoca en que las niñas de primaria  tengan un  acercamiento con la tecnología, informática y ofimática, para que ya en bachillerato, con la docente Claudia Ramirez, quien orienta la asignatura de 6° a 11, se aplique lo aprendido de preescolar a 5° y se aborde la programación apoyada en la introducción y exploración de actividades en plataformas como code.org y makecode, no obstante, es hasta 10° y 11° que se aborda en la lógica de programación conceptos como algoritmos. </t>
+        </is>
+      </c>
       <c r="R16" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -3794,7 +3788,7 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -3804,114 +3798,122 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr"/>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En la entrevista la docente menciona que a nivel general en la I.E. se aplica un plan de apoyo integral para estudiantes que necesitan algún refuerzo o la estrategia para ajustes razonables, en casos donde las niñas evidencian problemas emocionales o de otro tipo que influyan en su proceso didáctico, pero esto no se recalca o profundiza en el plan de estudio, La docente menciona también, que antes de la pandemia, manejaba un semillero de programación en donde invitaba a todas las niñas interesadas, motivando a todas las estudiantes a participar. </t>
+        </is>
+      </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AN16" t="inlineStr"/>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al ser una I.E. en donde sólo estudian niñas, no se hace mucho énfasis en este tema. </t>
+        </is>
+      </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
@@ -3921,55 +3923,57 @@
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AZ16" t="inlineStr"/>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AZ16" t="inlineStr">
+        <is>
+          <t>En la I.E. se promueven jornadas y capacitaciones enfocadas en la didáctica y la pedagogía en determinados momentos del año, pero el proceso formativo especifico en el área de cada docentes, se asume de forma autónoma.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01/06</t>
+          <t>24/05</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>38</v>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3979,12 +3983,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3999,17 +4003,17 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -4040,22 +4044,22 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -4065,12 +4069,12 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr"/>
@@ -4121,7 +4125,7 @@
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr"/>
@@ -4142,12 +4146,12 @@
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
@@ -4181,6 +4185,242 @@
         </is>
       </c>
       <c r="AZ17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>272</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>01/06</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>38</v>
+      </c>
+      <c r="E18" t="n">
+        <v>272</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AZ18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
